--- a/m1/m1.xlsx
+++ b/m1/m1.xlsx
@@ -375,7 +375,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D19" s="13" t="n">
         <f aca="false">SUM(D8:D18)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E19" s="13"/>
     </row>
